--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Fc\EVA_Test\src\main\java\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F190E7C-46C2-4176-BAF6-FAA9AC03D855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>test@fastcollab.com</t>
+  </si>
+  <si>
+    <t>Myadmin@123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +51,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +81,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +368,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Fc\EVA_Test\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F190E7C-46C2-4176-BAF6-FAA9AC03D855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733278D-E1D2-465E-853C-E8653DB193D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -38,12 +38,18 @@
   <si>
     <t>Myadmin@123</t>
   </si>
+  <si>
+    <t>sridhar.moddu@fastcollab.com</t>
+  </si>
+  <si>
+    <t>yadmin@123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +60,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -80,17 +94,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,35 +481,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{FBD853C0-8D2B-453F-9D77-57701219F4E2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{999EBDE8-F535-4905-9839-AD55DA4BB422}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{FF9CF64F-7209-4AE0-95A6-A2333E264AFE}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{49B8EC95-FD21-4C14-9172-3249822DF118}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{BFF4A83C-2680-43C7-BE05-09AD510C2233}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{CE6F6CFD-BB09-4AD3-A284-ADA916CF1074}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{B1C002F3-FC0E-4345-A4E8-65C8A2267434}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Fc\EVA_Test\src\main\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durga\git\EVA_Test\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733278D-E1D2-465E-853C-E8653DB193D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C64819-4A49-436D-B6AA-87233F978AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="commercials" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -43,13 +44,25 @@
   </si>
   <si>
     <t>yadmin@123</t>
+  </si>
+  <si>
+    <t>FCM</t>
+  </si>
+  <si>
+    <t>FCM001</t>
+  </si>
+  <si>
+    <t>entityname</t>
+  </si>
+  <si>
+    <t>entitycode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +85,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,7 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -199,6 +224,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -483,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +581,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CA5003-92F6-478A-BE62-79D5E0F5FF45}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Fc\EVA_Test\src\main\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\EVA_Test\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733278D-E1D2-465E-853C-E8653DB193D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25DCB1-6E88-4A90-83BE-14A661D34235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightsData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>yadmin@123</t>
+  </si>
+  <si>
+    <t>From Location</t>
+  </si>
+  <si>
+    <t>To location</t>
+  </si>
+  <si>
+    <t>Depature Date</t>
   </si>
 </sst>
 </file>
@@ -190,7 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -199,6 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -483,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +565,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307964F-718E-4AF2-9A04-A5A8FD4547BB}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>